--- a/AJ_1906 AJ_Project 4 Health Inspector/Artificts/02 Product Backlog-75-Health_Inspector.xlsx
+++ b/AJ_1906 AJ_Project 4 Health Inspector/Artificts/02 Product Backlog-75-Health_Inspector.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\768858\Desktop\artifict\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\768858\Desktop\AJ_1906 AJ_Project 4 Health Inspector\Artificts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1410" windowWidth="12000" windowHeight="6585" tabRatio="711" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="1410" windowWidth="12000" windowHeight="6585" tabRatio="711" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="9" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="199">
   <si>
     <t>Date</t>
   </si>
@@ -941,9 +941,6 @@
 For CoD and Duration, Fibonacci series (relative rating can be used)</t>
   </si>
   <si>
-    <t>Release ID: QTAD-PBL / 2.0.0 / 30-Mar-2015</t>
-  </si>
-  <si>
     <t>Product Backlog</t>
   </si>
   <si>
@@ -1032,9 +1029,6 @@
     <t>FEA 12</t>
   </si>
   <si>
-    <t>FEA 13</t>
-  </si>
-  <si>
     <t>FS 1</t>
   </si>
   <si>
@@ -1083,9 +1077,6 @@
     <t>FS 11</t>
   </si>
   <si>
-    <t>FS 12</t>
-  </si>
-  <si>
     <t>FS 13</t>
   </si>
   <si>
@@ -1096,58 +1087,6 @@
   </si>
   <si>
     <t>Health Inspector</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Product Backlog - Instructions          Health Inspector
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="23"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Release ID: QTAD-PBL / 2.0.0 / 30-Mar-2015          C3: Protected          Controlled Copy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="23"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Project ID: &lt;Project ID&gt;                                   &lt;SCI.ID&gt; / Ver: &lt;No.&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Product Backlog - Product Backlog         Health Inspector
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="23"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Release ID: QTAD-PBL / 2.0.0 / 30-Mar-2015          C3: Protected          Controlled Copy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="23"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Project ID: &lt;Project ID&gt;                                   &lt;SCI.ID&gt; / Ver: &lt;No.&gt;</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1176,6 +1115,209 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">User redirection to fill some of the basic attributes/fields as mentioned below in: 
+First Name
+Last Name
+Age
+Gender
+Contact Number
+User Id
+ Password
+</t>
+  </si>
+  <si>
+    <t>The objective of this requirement is to display the search page to the user</t>
+  </si>
+  <si>
+    <t>Once the user is successfully logged in, gets the Search page displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FS 6 / Req_3.1 </t>
+  </si>
+  <si>
+    <t>User is able to search for a doctor or a clinic using the search text field in the embedded google maps search pane and the Search results should be displayed in the maps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FS 7 / Req_3.2 to Req_3.3 </t>
+  </si>
+  <si>
+    <t>The objective of this requirement is to allow the user to search for a doctor or clinic</t>
+  </si>
+  <si>
+    <t>The objective of this requirement is to allow the user to perform advanced search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clicking “Advanced Search” should display a form with below fields to be entered and provide buttons to "Search" or "Reset" the fields:
+Keyword Search
+Name
+Specialization
+City
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clicking on a particular profile should display the details as:
+Doctor Name
+Specialization
+City
+Availability
+</t>
+  </si>
+  <si>
+    <t>FS 8 / Req_4.1 to Req_4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FS 9 / Req_4.4 </t>
+  </si>
+  <si>
+    <t>The objective of this requirement is to display the search results</t>
+  </si>
+  <si>
+    <t>The objective of this requirement is to allow the patients to book appointments online</t>
+  </si>
+  <si>
+    <t>User to choose the Doctor’s availability and click “Schedule Appointment”
+Patient Name
+Age
+Gender
+Contact Number
+Hospital Name
+City
+Facility Required
+Medical Records</t>
+  </si>
+  <si>
+    <t>The objective of this requirement is to allow the patients to submit the booking and set reminders book appointments online</t>
+  </si>
+  <si>
+    <t>FS 10 / Req_5.1</t>
+  </si>
+  <si>
+    <t>FS 11 / Req_5.2 to Req_5.4</t>
+  </si>
+  <si>
+    <t>Portal to display a form that allows user to report the technical issues through Email, with the below mandatory fields and button to submit:
+Issue
+Description
+Send Button</t>
+  </si>
+  <si>
+    <t>The objective of this requirement is to allow the doctors or patients to report technical issues</t>
+  </si>
+  <si>
+    <t>FS 13 / Req_7.1 to Req_7.2</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>Appointment Booking</t>
+  </si>
+  <si>
+    <t>New User Registration</t>
+  </si>
+  <si>
+    <t>Search Page</t>
+  </si>
+  <si>
+    <t>Advanced Search</t>
+  </si>
+  <si>
+    <t>&lt;SCI.ID&gt; / Ver: &lt;1.0&gt;</t>
+  </si>
+  <si>
+    <t>Project ID: AJ_Project 4 Health Inspector</t>
+  </si>
+  <si>
+    <t>Keerthivasan R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajay Kumar Pandey </t>
+  </si>
+  <si>
+    <t>Vasundhara Bagde</t>
+  </si>
+  <si>
+    <t>Release ID: QTAD-BREQ / 1.4.0 / 13-Apr-2019</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Product Backlog - Instructions          Health Inspector
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Release ID: QTAD-BREQ / 1.4.0 / 13-Apr-2019         C3: Protected          Controlled Copy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Project ID: AJ_Project 4 Health Inspector                                   &lt;SCI.ID&gt; / Ver: &lt;1.0.0.&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Product Backlog - Product Backlog         Health Inspector
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Release ID: QTAD-BREQ / 1.4.0 / 13-Apr-2019            C3: Protected          Controlled Copy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Project ID: AJ_Project 4 Health Inspector                                   &lt;SCI.ID&gt; / Ver: 1.0.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Product Backlog - WSJF Technique          Health Inspector
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Release ID: QTAD-BREQ / 1.4.0 / 13-Apr-2019            C3: Protected          Controlled Copy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Project ID: AJ_Project 4 Health Inspector                                  &lt;SCI.ID&gt; / Ver: 1.0.0</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Product Backlog - Report Data          Health Inspector
 </t>
@@ -1188,7 +1330,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Release ID: QTAD-PBL / 2.0.0 / 30-Mar-2015          C3: Protected          Controlled Copy</t>
+      <t>Release ID: QTAD-BREQ / 1.4.0 / 13-Apr-2019           C3: Protected          Controlled Copy</t>
     </r>
     <r>
       <rPr>
@@ -1198,173 +1340,12 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-Project ID: &lt;Project ID&gt;                                   &lt;SCI.ID&gt; / Ver: &lt;No.&gt;</t>
+Project ID: AJ_Project 4 Health Inspector                                   &lt;SCI.ID&gt; / Ver: 1.0.0</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Product Backlog - WSJF Technique          Health Inspector
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="23"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Release ID: QTAD-PBL / 2.0.0 / 30-Mar-2015          C3: Protected          Controlled Copy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="23"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Project ID: &lt;Project ID&gt;                                   &lt;SCI.ID&gt; / Ver: &lt;No.&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">User redirection to fill some of the basic attributes/fields as mentioned below in: 
-First Name
-Last Name
-Age
-Gender
-Contact Number
-User Id
- Password
-</t>
-  </si>
-  <si>
-    <t>The objective of this requirement is to display the search page to the user</t>
-  </si>
-  <si>
-    <t>Once the user is successfully logged in, gets the Search page displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FS 6 / Req_3.1 </t>
-  </si>
-  <si>
-    <t>User is able to search for a doctor or a clinic using the search text field in the embedded google maps search pane and the Search results should be displayed in the maps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FS 7 / Req_3.2 to Req_3.3 </t>
-  </si>
-  <si>
-    <t>The objective of this requirement is to allow the user to search for a doctor or clinic</t>
-  </si>
-  <si>
-    <t>The objective of this requirement is to allow the user to perform advanced search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clicking “Advanced Search” should display a form with below fields to be entered and provide buttons to "Search" or "Reset" the fields:
-Keyword Search
-Name
-Specialization
-City
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clicking on a particular profile should display the details as:
-Doctor Name
-Specialization
-City
-Availability
-</t>
-  </si>
-  <si>
-    <t>FS 8 / Req_4.1 to Req_4.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FS 9 / Req_4.4 </t>
-  </si>
-  <si>
-    <t>The objective of this requirement is to display the search results</t>
-  </si>
-  <si>
-    <t>The objective of this requirement is to allow the patients to book appointments online</t>
-  </si>
-  <si>
-    <t>User to choose the Doctor’s availability and click “Schedule Appointment”
-Patient Name
-Age
-Gender
-Contact Number
-Hospital Name
-City
-Facility Required
-Medical Records</t>
-  </si>
-  <si>
-    <t>The objective of this requirement is to allow the patients to submit the booking and set reminders book appointments online</t>
-  </si>
-  <si>
     <t>1. The display form should have buttons to click “Submit” and “Set Reminder”
-2. Post successfully booking appointment, display message “Scheduling Appointment Successful”
-3. If user clicks on Set Reminder, display an option for frequency of reminder message to be sent to the Contact number</t>
-  </si>
-  <si>
-    <t>FS 10 / Req_5.1</t>
-  </si>
-  <si>
-    <t>FS 11 / Req_5.2 to Req_5.4</t>
-  </si>
-  <si>
-    <t>The objective of this requirement is to allow the patients to chat online with the doctors</t>
-  </si>
-  <si>
-    <t>FS 12 / Req_6.1</t>
-  </si>
-  <si>
-    <t>Ability of the portal to allow the users to chat with the Doctors based on their availability to solve any queries</t>
-  </si>
-  <si>
-    <t>Portal to display a form that allows user to report the technical issues through Email, with the below mandatory fields and button to submit:
-Issue
-Description
-Send Button</t>
-  </si>
-  <si>
-    <t>The objective of this requirement is to allow the doctors or patients to report technical issues</t>
-  </si>
-  <si>
-    <t>FS 13 / Req_7.1 to Req_7.2</t>
-  </si>
-  <si>
-    <t>Help</t>
-  </si>
-  <si>
-    <t>Online Chat</t>
-  </si>
-  <si>
-    <t>Appointment Booking</t>
-  </si>
-  <si>
-    <t>New User Registration</t>
-  </si>
-  <si>
-    <t>Search Page</t>
-  </si>
-  <si>
-    <t>Advanced Search</t>
-  </si>
-  <si>
-    <t>&lt;SCI.ID&gt; / Ver: &lt;1.0&gt;</t>
-  </si>
-  <si>
-    <t>Project ID: AJ_Project 4 Health Inspector</t>
-  </si>
-  <si>
-    <t>Keerthivasan R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajay Kumar Pandey </t>
-  </si>
-  <si>
-    <t>Vasundhara Bagde</t>
+2. Post successfully booking appointment, display message “Scheduling Appointment Successful”</t>
   </si>
 </sst>
 </file>
@@ -2963,7 +2944,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Chart8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="71" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5324,7 +5305,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5397,7 +5378,7 @@
     </row>
     <row r="8" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="132" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C8" s="133"/>
       <c r="D8" s="133"/>
@@ -5415,7 +5396,7 @@
     </row>
     <row r="10" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="132" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="133"/>
       <c r="D10" s="133"/>
@@ -5559,13 +5540,13 @@
         <v>3</v>
       </c>
       <c r="D26" s="106" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E26" s="106" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F26" s="106" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G26" s="51"/>
       <c r="H26" s="1"/>
@@ -5576,11 +5557,11 @@
         <v>4</v>
       </c>
       <c r="D27" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="106" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G27" s="51"/>
       <c r="H27" s="1"/>
@@ -5619,13 +5600,13 @@
     <row r="31" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="38" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="39" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G31" s="20"/>
     </row>
@@ -5648,7 +5629,7 @@
     </row>
     <row r="34" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="40" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="24"/>
@@ -5692,8 +5673,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5709,7 +5690,7 @@
   <sheetData>
     <row r="1" spans="2:15" s="55" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="152" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="C1" s="153"/>
       <c r="D1" s="153"/>
@@ -6081,10 +6062,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH173"/>
+  <dimension ref="A1:AH172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6104,7 +6085,7 @@
     <row r="1" spans="1:34" s="55" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111"/>
       <c r="B1" s="152" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="C1" s="153"/>
       <c r="D1" s="153"/>
@@ -6172,25 +6153,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="105" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="105" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" s="105" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3" s="71" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F3" s="71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G3" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="71" t="s">
         <v>115</v>
-      </c>
-      <c r="H3" s="71" t="s">
-        <v>116</v>
       </c>
       <c r="I3" s="71"/>
       <c r="J3" s="72"/>
@@ -6224,25 +6205,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="105" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="105" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="105" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="122" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="105" t="s">
-        <v>169</v>
-      </c>
-      <c r="E4" s="122" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" s="71" t="s">
+      <c r="H4" s="71" t="s">
         <v>115</v>
-      </c>
-      <c r="H4" s="71" t="s">
-        <v>116</v>
       </c>
       <c r="I4" s="71"/>
       <c r="J4" s="72"/>
@@ -6276,25 +6257,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C5" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="105" t="s">
-        <v>127</v>
-      </c>
       <c r="E5" s="123" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F5" s="71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G5" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="71" t="s">
         <v>115</v>
-      </c>
-      <c r="H5" s="71" t="s">
-        <v>116</v>
       </c>
       <c r="I5" s="71"/>
       <c r="J5" s="72"/>
@@ -6328,25 +6309,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="105" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C6" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="105" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="105" t="s">
+      <c r="E6" s="123" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="123" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" s="71" t="s">
-        <v>120</v>
-      </c>
       <c r="G6" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="71" t="s">
         <v>115</v>
-      </c>
-      <c r="H6" s="71" t="s">
-        <v>116</v>
       </c>
       <c r="I6" s="71"/>
       <c r="J6" s="72"/>
@@ -6380,25 +6361,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="105" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C7" s="105" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="105" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" s="123" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G7" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="71" t="s">
         <v>115</v>
-      </c>
-      <c r="H7" s="71" t="s">
-        <v>116</v>
       </c>
       <c r="I7" s="71"/>
       <c r="J7" s="72"/>
@@ -6432,25 +6413,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="105" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C8" s="105" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D8" s="105" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E8" s="123" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G8" s="71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H8" s="71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I8" s="71"/>
       <c r="J8" s="72"/>
@@ -6484,25 +6465,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="105" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C9" s="105" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D9" s="105" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E9" s="123" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F9" s="71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G9" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="71" t="s">
         <v>115</v>
-      </c>
-      <c r="H9" s="71" t="s">
-        <v>116</v>
       </c>
       <c r="I9" s="105"/>
       <c r="J9" s="117"/>
@@ -6536,25 +6517,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="105" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C10" s="105" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D10" s="105" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E10" s="123" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F10" s="71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G10" s="71" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H10" s="71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I10" s="105"/>
       <c r="J10" s="117"/>
@@ -6588,25 +6569,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="105" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C11" s="105" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D11" s="105" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E11" s="123" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G11" s="71" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H11" s="71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I11" s="105"/>
       <c r="J11" s="114"/>
@@ -6640,25 +6621,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C12" s="105" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D12" s="105" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E12" s="123" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F12" s="105" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G12" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="71" t="s">
         <v>115</v>
-      </c>
-      <c r="H12" s="71" t="s">
-        <v>116</v>
       </c>
       <c r="I12" s="105"/>
       <c r="J12" s="114"/>
@@ -6687,30 +6668,30 @@
       <c r="AG12" s="114"/>
       <c r="AH12" s="114"/>
     </row>
-    <row r="13" spans="1:34" s="118" customFormat="1" ht="132" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" s="118" customFormat="1" ht="84" x14ac:dyDescent="0.2">
       <c r="A13" s="105">
         <v>11</v>
       </c>
       <c r="B13" s="105" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C13" s="105" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D13" s="125" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="E13" s="123" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F13" s="105" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G13" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="71" t="s">
         <v>115</v>
-      </c>
-      <c r="H13" s="71" t="s">
-        <v>116</v>
       </c>
       <c r="I13" s="105"/>
       <c r="J13" s="114"/>
@@ -6739,84 +6720,68 @@
       <c r="AG13" s="114"/>
       <c r="AH13" s="114"/>
     </row>
-    <row r="14" spans="1:34" s="118" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" s="118" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A14" s="105">
         <v>12</v>
       </c>
       <c r="B14" s="105" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C14" s="105" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D14" s="105" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E14" s="123" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F14" s="105" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G14" s="71" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="H14" s="71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I14" s="105"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="114"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="114"/>
-      <c r="Q14" s="114"/>
-      <c r="R14" s="114"/>
-      <c r="S14" s="114"/>
-      <c r="T14" s="114"/>
-      <c r="U14" s="114"/>
-      <c r="V14" s="114"/>
-      <c r="W14" s="114"/>
-      <c r="X14" s="114"/>
-      <c r="Y14" s="114"/>
-      <c r="Z14" s="114"/>
-      <c r="AA14" s="114"/>
-      <c r="AB14" s="114"/>
-      <c r="AC14" s="114"/>
-      <c r="AD14" s="114"/>
-      <c r="AE14" s="114"/>
-      <c r="AF14" s="114"/>
-      <c r="AG14" s="114"/>
-      <c r="AH14" s="114"/>
-    </row>
-    <row r="15" spans="1:34" s="118" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="105">
-        <v>13</v>
-      </c>
-      <c r="B15" s="105" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="105" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" s="105" t="s">
-        <v>191</v>
-      </c>
-      <c r="E15" s="123" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="G15" s="71" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="I15" s="105"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="117"/>
+      <c r="R14" s="117"/>
+      <c r="S14" s="117"/>
+      <c r="T14" s="117"/>
+      <c r="U14" s="117"/>
+      <c r="V14" s="117"/>
+      <c r="W14" s="117"/>
+      <c r="X14" s="117"/>
+      <c r="Y14" s="117"/>
+      <c r="Z14" s="117"/>
+      <c r="AA14" s="117"/>
+      <c r="AB14" s="117"/>
+      <c r="AC14" s="117"/>
+      <c r="AD14" s="117"/>
+      <c r="AE14" s="117"/>
+      <c r="AF14" s="117"/>
+      <c r="AG14" s="117"/>
+      <c r="AH14" s="117"/>
+    </row>
+    <row r="15" spans="1:34" s="119" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="114"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="117"/>
       <c r="J15" s="117"/>
       <c r="K15" s="117"/>
       <c r="L15" s="117"/>
@@ -6987,41 +6952,41 @@
       <c r="AG19" s="117"/>
       <c r="AH19" s="117"/>
     </row>
-    <row r="20" spans="1:34" s="119" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="114"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="117"/>
-      <c r="N20" s="117"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="117"/>
-      <c r="Q20" s="117"/>
-      <c r="R20" s="117"/>
-      <c r="S20" s="117"/>
-      <c r="T20" s="117"/>
-      <c r="U20" s="117"/>
-      <c r="V20" s="117"/>
-      <c r="W20" s="117"/>
-      <c r="X20" s="117"/>
-      <c r="Y20" s="117"/>
-      <c r="Z20" s="117"/>
-      <c r="AA20" s="117"/>
-      <c r="AB20" s="117"/>
-      <c r="AC20" s="117"/>
-      <c r="AD20" s="117"/>
-      <c r="AE20" s="117"/>
-      <c r="AF20" s="117"/>
-      <c r="AG20" s="117"/>
-      <c r="AH20" s="117"/>
+    <row r="20" spans="1:34" s="121" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="115"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="120"/>
+      <c r="Q20" s="120"/>
+      <c r="R20" s="120"/>
+      <c r="S20" s="120"/>
+      <c r="T20" s="120"/>
+      <c r="U20" s="120"/>
+      <c r="V20" s="120"/>
+      <c r="W20" s="120"/>
+      <c r="X20" s="120"/>
+      <c r="Y20" s="120"/>
+      <c r="Z20" s="120"/>
+      <c r="AA20" s="120"/>
+      <c r="AB20" s="120"/>
+      <c r="AC20" s="120"/>
+      <c r="AD20" s="120"/>
+      <c r="AE20" s="120"/>
+      <c r="AF20" s="120"/>
+      <c r="AG20" s="120"/>
+      <c r="AH20" s="120"/>
     </row>
     <row r="21" spans="1:34" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="115"/>
@@ -7167,7 +7132,7 @@
       <c r="AG24" s="120"/>
       <c r="AH24" s="120"/>
     </row>
-    <row r="25" spans="1:34" s="121" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" s="120" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="115"/>
       <c r="B25" s="115"/>
       <c r="C25" s="115"/>
@@ -7176,32 +7141,6 @@
       <c r="F25" s="115"/>
       <c r="G25" s="115"/>
       <c r="H25" s="115"/>
-      <c r="I25" s="120"/>
-      <c r="J25" s="120"/>
-      <c r="K25" s="120"/>
-      <c r="L25" s="120"/>
-      <c r="M25" s="120"/>
-      <c r="N25" s="120"/>
-      <c r="O25" s="120"/>
-      <c r="P25" s="120"/>
-      <c r="Q25" s="120"/>
-      <c r="R25" s="120"/>
-      <c r="S25" s="120"/>
-      <c r="T25" s="120"/>
-      <c r="U25" s="120"/>
-      <c r="V25" s="120"/>
-      <c r="W25" s="120"/>
-      <c r="X25" s="120"/>
-      <c r="Y25" s="120"/>
-      <c r="Z25" s="120"/>
-      <c r="AA25" s="120"/>
-      <c r="AB25" s="120"/>
-      <c r="AC25" s="120"/>
-      <c r="AD25" s="120"/>
-      <c r="AE25" s="120"/>
-      <c r="AF25" s="120"/>
-      <c r="AG25" s="120"/>
-      <c r="AH25" s="120"/>
     </row>
     <row r="26" spans="1:34" s="120" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="115"/>
@@ -7243,15 +7182,15 @@
       <c r="G29" s="115"/>
       <c r="H29" s="115"/>
     </row>
-    <row r="30" spans="1:34" s="120" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="115"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
     </row>
     <row r="31" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="115"/>
@@ -8673,37 +8612,27 @@
       <c r="G172" s="76"/>
       <c r="H172" s="76"/>
     </row>
-    <row r="173" spans="1:8" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="115"/>
-      <c r="B173" s="76"/>
-      <c r="C173" s="76"/>
-      <c r="D173" s="76"/>
-      <c r="E173" s="76"/>
-      <c r="F173" s="76"/>
-      <c r="G173" s="76"/>
-      <c r="H173" s="76"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:D1 C16:D65512">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:D1 C15:D65511">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1 F16:G65512">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1 F15:G65511">
       <formula1>"Functional, External Interface, User Interface,System Interface, Non functional"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E16:E65512">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E15:E65511">
       <formula1>"Simple,Average,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G14">
       <formula1>"Low, Medium, High"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H14">
       <formula1>"New Requirement, Enhancement, Bug, Issue"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F14">
       <formula1>"Trivial, Simple, Average, Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8747,10 +8676,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AP170"/>
+  <dimension ref="A1:AP169"/>
   <sheetViews>
-    <sheetView topLeftCell="J2" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:P16"/>
+    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8773,9 +8702,9 @@
     <col min="42" max="16384" width="8.7109375" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="55" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" s="55" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="152" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C1" s="152"/>
       <c r="D1" s="152"/>
@@ -8787,7 +8716,7 @@
       <c r="N1" s="56"/>
       <c r="O1" s="56"/>
     </row>
-    <row r="2" spans="1:41" s="101" customFormat="1" ht="64.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" s="101" customFormat="1" ht="64.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="102" t="s">
         <v>43</v>
       </c>
@@ -8862,7 +8791,7 @@
       <c r="AN2" s="103"/>
       <c r="AO2" s="103"/>
     </row>
-    <row r="3" spans="1:41" s="101" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" s="101" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="104"/>
       <c r="B3" s="104"/>
       <c r="C3" s="104"/>
@@ -8911,36 +8840,36 @@
       <c r="AN3" s="103"/>
       <c r="AO3" s="103"/>
     </row>
-    <row r="4" spans="1:41" s="110" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" s="110" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="107">
         <v>1</v>
       </c>
       <c r="B4" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" s="108">
         <v>4</v>
       </c>
       <c r="F4" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G4" s="124" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H4" s="108" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I4" s="124" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="J4" s="105" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K4" s="107" t="s">
         <v>87</v>
@@ -8955,17 +8884,17 @@
         <v>1</v>
       </c>
       <c r="O4" s="107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P4" s="107">
         <v>1</v>
       </c>
       <c r="Q4" s="109">
-        <f t="shared" ref="Q4:Q16" si="0">IF(K4&lt;&gt;"X",IF(O4&lt;&gt;"Complete",N4,0),0)</f>
+        <f t="shared" ref="Q4:Q15" si="0">IF(K4&lt;&gt;"X",IF(O4&lt;&gt;"Complete",N4,0),0)</f>
         <v>0</v>
       </c>
       <c r="R4" s="109">
-        <f t="shared" ref="R4:R16" si="1">IF(K4&lt;&gt;"X",IF(O4="Complete",N4,0),0)</f>
+        <f t="shared" ref="R4:R15" si="1">IF(K4&lt;&gt;"X",IF(O4="Complete",N4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S4" s="103"/>
@@ -8992,36 +8921,36 @@
       <c r="AN4" s="103"/>
       <c r="AO4" s="103"/>
     </row>
-    <row r="5" spans="1:41" s="110" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" s="110" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A5" s="107">
         <v>2</v>
       </c>
       <c r="B5" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="108">
         <v>4</v>
       </c>
       <c r="F5" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" s="124" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H5" s="108" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I5" s="124" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="J5" s="105" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="K5" s="107" t="s">
         <v>87</v>
@@ -9036,7 +8965,7 @@
         <v>2</v>
       </c>
       <c r="O5" s="107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P5" s="107">
         <v>2</v>
@@ -9073,36 +9002,36 @@
       <c r="AN5" s="103"/>
       <c r="AO5" s="103"/>
     </row>
-    <row r="6" spans="1:41" s="81" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" s="81" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A6" s="107">
         <v>3</v>
       </c>
       <c r="B6" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" s="108">
         <v>4</v>
       </c>
       <c r="F6" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G6" s="124" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H6" s="108" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I6" s="124" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="J6" s="105" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K6" s="107" t="s">
         <v>87</v>
@@ -9117,7 +9046,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P6" s="107">
         <v>1</v>
@@ -9154,36 +9083,36 @@
       <c r="AN6" s="69"/>
       <c r="AO6" s="69"/>
     </row>
-    <row r="7" spans="1:41" s="81" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" s="81" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="107">
         <v>4</v>
       </c>
       <c r="B7" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="108">
         <v>4</v>
       </c>
       <c r="F7" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G7" s="124" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H7" s="108" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I7" s="124" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J7" s="105" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K7" s="107" t="s">
         <v>87</v>
@@ -9198,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P7" s="107">
         <v>1</v>
@@ -9235,36 +9164,36 @@
       <c r="AN7" s="69"/>
       <c r="AO7" s="69"/>
     </row>
-    <row r="8" spans="1:41" s="81" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" s="81" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A8" s="107">
         <v>5</v>
       </c>
       <c r="B8" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" s="108">
         <v>4</v>
       </c>
       <c r="F8" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G8" s="124" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H8" s="108" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I8" s="124" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J8" s="105" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K8" s="107" t="s">
         <v>87</v>
@@ -9279,7 +9208,7 @@
         <v>2</v>
       </c>
       <c r="O8" s="107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P8" s="107">
         <v>2</v>
@@ -9314,36 +9243,36 @@
       <c r="AN8" s="69"/>
       <c r="AO8" s="69"/>
     </row>
-    <row r="9" spans="1:41" s="81" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" s="81" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="107">
         <v>6</v>
       </c>
       <c r="B9" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" s="108">
         <v>4</v>
       </c>
       <c r="F9" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G9" s="124" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H9" s="108" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I9" s="124" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="J9" s="105" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="K9" s="107" t="s">
         <v>87</v>
@@ -9358,7 +9287,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P9" s="107">
         <v>1</v>
@@ -9395,36 +9324,36 @@
       <c r="AN9" s="69"/>
       <c r="AO9" s="69"/>
     </row>
-    <row r="10" spans="1:41" s="81" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" s="81" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A10" s="107">
         <v>7</v>
       </c>
       <c r="B10" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E10" s="108">
         <v>4</v>
       </c>
       <c r="F10" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G10" s="124" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H10" s="108" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I10" s="124" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="J10" s="105" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="K10" s="107" t="s">
         <v>87</v>
@@ -9439,7 +9368,7 @@
         <v>2</v>
       </c>
       <c r="O10" s="107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P10" s="107">
         <v>2</v>
@@ -9476,36 +9405,36 @@
       <c r="AN10" s="69"/>
       <c r="AO10" s="69"/>
     </row>
-    <row r="11" spans="1:41" s="81" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" s="81" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A11" s="107">
         <v>8</v>
       </c>
       <c r="B11" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="108">
         <v>4</v>
       </c>
       <c r="F11" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G11" s="124" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H11" s="108" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I11" s="124" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="J11" s="105" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K11" s="107" t="s">
         <v>87</v>
@@ -9520,7 +9449,7 @@
         <v>2</v>
       </c>
       <c r="O11" s="107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P11" s="107">
         <v>2</v>
@@ -9557,36 +9486,36 @@
       <c r="AN11" s="69"/>
       <c r="AO11" s="69"/>
     </row>
-    <row r="12" spans="1:41" s="81" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" s="81" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A12" s="107">
         <v>9</v>
       </c>
       <c r="B12" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12" s="108">
         <v>4</v>
       </c>
       <c r="F12" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G12" s="124" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H12" s="108" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I12" s="124" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="J12" s="105" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K12" s="107" t="s">
         <v>87</v>
@@ -9601,7 +9530,7 @@
         <v>2</v>
       </c>
       <c r="O12" s="107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P12" s="107">
         <v>2</v>
@@ -9638,36 +9567,36 @@
       <c r="AN12" s="69"/>
       <c r="AO12" s="69"/>
     </row>
-    <row r="13" spans="1:41" s="81" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" s="81" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A13" s="107">
         <v>10</v>
       </c>
       <c r="B13" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E13" s="108">
         <v>4</v>
       </c>
       <c r="F13" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G13" s="124" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H13" s="108" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I13" s="124" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="J13" s="105" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K13" s="107" t="s">
         <v>87</v>
@@ -9682,7 +9611,7 @@
         <v>1</v>
       </c>
       <c r="O13" s="107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P13" s="107">
         <v>1</v>
@@ -9719,36 +9648,36 @@
       <c r="AN13" s="69"/>
       <c r="AO13" s="69"/>
     </row>
-    <row r="14" spans="1:41" s="81" customFormat="1" ht="108" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" s="81" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="107">
         <v>11</v>
       </c>
       <c r="B14" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C14" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E14" s="108">
         <v>4</v>
       </c>
       <c r="F14" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G14" s="124" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H14" s="108" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I14" s="124" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="J14" s="125" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="K14" s="107" t="s">
         <v>87</v>
@@ -9763,7 +9692,7 @@
         <v>1</v>
       </c>
       <c r="O14" s="107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P14" s="107">
         <v>1</v>
@@ -9800,36 +9729,36 @@
       <c r="AN14" s="69"/>
       <c r="AO14" s="69"/>
     </row>
-    <row r="15" spans="1:41" s="81" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" s="81" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="107">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" s="108">
         <v>4</v>
       </c>
       <c r="F15" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G15" s="124" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H15" s="108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I15" s="124" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="J15" s="105" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K15" s="107" t="s">
         <v>87</v>
@@ -9838,16 +9767,16 @@
         <v>90</v>
       </c>
       <c r="M15" s="107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" s="107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P15" s="107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="109">
         <f t="shared" si="0"/>
@@ -9881,89 +9810,28 @@
       <c r="AN15" s="69"/>
       <c r="AO15" s="69"/>
     </row>
-    <row r="16" spans="1:41" s="81" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A16" s="107">
-        <v>13</v>
-      </c>
-      <c r="B16" s="108" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="108" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="108" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="108">
-        <v>4</v>
-      </c>
-      <c r="F16" s="108" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" s="124" t="s">
-        <v>160</v>
-      </c>
-      <c r="H16" s="108" t="s">
-        <v>142</v>
-      </c>
-      <c r="I16" s="124" t="s">
-        <v>194</v>
-      </c>
-      <c r="J16" s="105" t="s">
-        <v>191</v>
-      </c>
-      <c r="K16" s="107" t="s">
-        <v>87</v>
-      </c>
-      <c r="L16" s="108" t="s">
-        <v>90</v>
-      </c>
-      <c r="M16" s="107">
-        <v>1</v>
-      </c>
-      <c r="N16" s="107">
-        <v>2</v>
-      </c>
-      <c r="O16" s="107" t="s">
-        <v>122</v>
-      </c>
-      <c r="P16" s="107">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="109">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="109">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="69"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="69"/>
-      <c r="AJ16" s="69"/>
-      <c r="AK16" s="69"/>
-      <c r="AL16" s="69"/>
-      <c r="AM16" s="69"/>
-      <c r="AN16" s="69"/>
-      <c r="AO16" s="69"/>
-    </row>
-    <row r="17" spans="1:42" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="84"/>
+    <row r="16" spans="1:42" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="84"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="AP16" s="83"/>
+    </row>
+    <row r="17" spans="1:42" s="82" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="87" t="s">
+        <v>92</v>
+      </c>
       <c r="B17" s="84"/>
       <c r="C17" s="84"/>
       <c r="D17" s="84"/>
@@ -9974,17 +9842,22 @@
       <c r="I17" s="84"/>
       <c r="J17" s="84"/>
       <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
+      <c r="L17" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="85"/>
+      <c r="N17" s="86">
+        <f>SUM(N4:N15)</f>
+        <v>18</v>
+      </c>
       <c r="O17" s="84"/>
       <c r="AP17" s="83"/>
     </row>
-    <row r="18" spans="1:42" s="82" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="84"/>
+    <row r="18" spans="1:42" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="86"/>
+      <c r="B18" s="84" t="s">
+        <v>93</v>
+      </c>
       <c r="C18" s="84"/>
       <c r="D18" s="84"/>
       <c r="E18" s="84"/>
@@ -9994,22 +9867,15 @@
       <c r="I18" s="84"/>
       <c r="J18" s="84"/>
       <c r="K18" s="84"/>
-      <c r="L18" s="85" t="s">
-        <v>91</v>
-      </c>
-      <c r="M18" s="85"/>
-      <c r="N18" s="86">
-        <f>SUM(N4:N16)</f>
-        <v>18</v>
-      </c>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
       <c r="O18" s="84"/>
       <c r="AP18" s="83"/>
     </row>
     <row r="19" spans="1:42" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="86"/>
-      <c r="B19" s="84" t="s">
-        <v>93</v>
-      </c>
+      <c r="A19" s="84"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="84"/>
       <c r="D19" s="84"/>
       <c r="E19" s="84"/>
@@ -10077,7 +9943,6 @@
       <c r="M22" s="84"/>
       <c r="N22" s="84"/>
       <c r="O22" s="84"/>
-      <c r="AP22" s="83"/>
     </row>
     <row r="23" spans="1:42" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="84"/>
@@ -10161,8 +10026,8 @@
       <c r="K27" s="84"/>
       <c r="L27" s="84"/>
       <c r="M27" s="84"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
     </row>
     <row r="28" spans="1:42" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="84"/>
@@ -10929,22 +10794,22 @@
       <c r="N72" s="88"/>
       <c r="O72" s="88"/>
     </row>
-    <row r="73" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="84"/>
-      <c r="B73" s="84"/>
-      <c r="C73" s="84"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="84"/>
-      <c r="F73" s="84"/>
-      <c r="G73" s="84"/>
-      <c r="H73" s="84"/>
-      <c r="I73" s="84"/>
-      <c r="J73" s="84"/>
-      <c r="K73" s="84"/>
-      <c r="L73" s="84"/>
-      <c r="M73" s="84"/>
-      <c r="N73" s="88"/>
-      <c r="O73" s="88"/>
+    <row r="73" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="76"/>
+      <c r="B73" s="76"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="76"/>
+      <c r="F73" s="76"/>
+      <c r="G73" s="76"/>
+      <c r="H73" s="76"/>
+      <c r="I73" s="76"/>
+      <c r="J73" s="76"/>
+      <c r="K73" s="76"/>
+      <c r="L73" s="76"/>
+      <c r="M73" s="76"/>
+      <c r="N73" s="89"/>
+      <c r="O73" s="89"/>
     </row>
     <row r="74" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="76"/>
@@ -10960,8 +10825,8 @@
       <c r="K74" s="76"/>
       <c r="L74" s="76"/>
       <c r="M74" s="76"/>
-      <c r="N74" s="89"/>
-      <c r="O74" s="89"/>
+      <c r="N74" s="80"/>
+      <c r="O74" s="80"/>
     </row>
     <row r="75" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="76"/>
@@ -11402,8 +11267,8 @@
       <c r="K100" s="76"/>
       <c r="L100" s="76"/>
       <c r="M100" s="76"/>
-      <c r="N100" s="80"/>
-      <c r="O100" s="80"/>
+      <c r="N100" s="90"/>
+      <c r="O100" s="90"/>
     </row>
     <row r="101" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="76"/>
@@ -12578,40 +12443,23 @@
       <c r="N169" s="90"/>
       <c r="O169" s="90"/>
     </row>
-    <row r="170" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="76"/>
-      <c r="B170" s="76"/>
-      <c r="C170" s="76"/>
-      <c r="D170" s="76"/>
-      <c r="E170" s="76"/>
-      <c r="F170" s="76"/>
-      <c r="G170" s="76"/>
-      <c r="H170" s="76"/>
-      <c r="I170" s="76"/>
-      <c r="J170" s="76"/>
-      <c r="K170" s="76"/>
-      <c r="L170" s="76"/>
-      <c r="M170" s="76"/>
-      <c r="N170" s="90"/>
-      <c r="O170" s="90"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="B1:I1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O16">
-      <formula1>"Proposed, Assigned, Inprogress, Complete, Cancelled"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L24:M65526 N101:N65526 C17:F65526">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L23:M65525 N100:N65525 C16:F65525">
       <formula1>"Simple,Average,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20:B65526 B18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:B65525 B17">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O101:O65526">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O100:O65525">
       <formula1>"Functional, External Interface, User Interface,System Interface, Non functional"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O15">
+      <formula1>"Proposed, Assigned, Inprogress, Complete, Cancelled"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
@@ -12657,7 +12505,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12673,7 +12521,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="55" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="152" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="C1" s="153"/>
       <c r="D1" s="153"/>
@@ -12731,14 +12579,14 @@
         <v>0</v>
       </c>
       <c r="E4" s="94">
-        <f>SUMIF('Product - Release Tracking'!A$4:A$16,'Report Data'!B4,'Product - Release Tracking'!P$4:P$16)</f>
+        <f>SUMIF('Product - Release Tracking'!A$4:A$15,'Report Data'!B4,'Product - Release Tracking'!P$4:P$15)</f>
         <v>1</v>
       </c>
       <c r="F4" s="94">
         <v>0</v>
       </c>
       <c r="G4" s="94">
-        <f>SUMIF('Product - Release Tracking'!A$4:A$16,'Report Data'!B4,'Product - Release Tracking'!R$4:R$16)</f>
+        <f>SUMIF('Product - Release Tracking'!A$4:A$15,'Report Data'!B4,'Product - Release Tracking'!R$4:R$15)</f>
         <v>0</v>
       </c>
     </row>
@@ -12757,14 +12605,14 @@
         <v>0</v>
       </c>
       <c r="E5" s="94">
-        <f>SUMIF('Product - Release Tracking'!A$4:A$16,'Report Data'!B5,'Product - Release Tracking'!P$4:P$16)</f>
+        <f>SUMIF('Product - Release Tracking'!A$4:A$15,'Report Data'!B5,'Product - Release Tracking'!P$4:P$15)</f>
         <v>2</v>
       </c>
       <c r="F5" s="94">
         <v>0</v>
       </c>
       <c r="G5" s="94">
-        <f>SUMIF('Product - Release Tracking'!A$4:A$16,'Report Data'!B5,'Product - Release Tracking'!R$4:R$16)</f>
+        <f>SUMIF('Product - Release Tracking'!A$4:A$15,'Report Data'!B5,'Product - Release Tracking'!R$4:R$15)</f>
         <v>0</v>
       </c>
     </row>
@@ -12787,7 +12635,7 @@
         <v/>
       </c>
       <c r="C7" s="94">
-        <f>SUMIF('Product - Release Tracking'!A$4:A$16,'Report Data'!B7,'Product - Release Tracking'!N$4:N$16)</f>
+        <f>SUMIF('Product - Release Tracking'!A$4:A$15,'Report Data'!B7,'Product - Release Tracking'!N$4:N$15)</f>
         <v>0</v>
       </c>
       <c r="D7" s="94">
@@ -12795,15 +12643,15 @@
         <v>0</v>
       </c>
       <c r="E7" s="94">
-        <f>SUMIF('Product - Release Tracking'!A$4:A$16,'Report Data'!B7,'Product - Release Tracking'!P$4:P$16)</f>
+        <f>SUMIF('Product - Release Tracking'!A$4:A$15,'Report Data'!B7,'Product - Release Tracking'!P$4:P$15)</f>
         <v>0</v>
       </c>
       <c r="F7" s="94">
-        <f>SUMIF('Product - Release Tracking'!A$4:A$16,'Report Data'!B7,'Product - Release Tracking'!Q$4:Q$16)</f>
+        <f>SUMIF('Product - Release Tracking'!A$4:A$15,'Report Data'!B7,'Product - Release Tracking'!Q$4:Q$15)</f>
         <v>0</v>
       </c>
       <c r="G7" s="94">
-        <f>SUMIF('Product - Release Tracking'!A$4:A$16,'Report Data'!B7,'Product - Release Tracking'!R$4:R$16)</f>
+        <f>SUMIF('Product - Release Tracking'!A$4:A$15,'Report Data'!B7,'Product - Release Tracking'!R$4:R$15)</f>
         <v>0</v>
       </c>
     </row>
@@ -12863,7 +12711,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12879,7 +12727,7 @@
     <row r="1" spans="1:10" s="96" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="95"/>
       <c r="B1" s="163" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="C1" s="164"/>
       <c r="D1" s="164"/>
